--- a/Documentos/Diferentes maneras de promediar.xlsx
+++ b/Documentos/Diferentes maneras de promediar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\La pagina web de Hernan\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A48C00-1235-4586-BEDC-67DAE4169356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71298570-40B5-4D48-A70E-ADD5B1670C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B741E66-5315-4F2F-A9A8-5A64DA5A10D8}"/>
   </bookViews>
@@ -526,7 +526,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t>FUNCION MODA UNO</a:t>
+            <a:t>FUNCION MODA</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -540,7 +540,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t>=MODA.UNO(Rango)</a:t>
+            <a:t>=MODA(Rango)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -550,14 +550,14 @@
           </a:br>
           <a:r>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t>Entran en acción una nueva funcion: MODA.UNO. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
-            <a:t>MODA.UNO trae el valor más repetido y en el caso de que no haya ninguno igual, va a ocasionar un error. Si se presenta un escenario en el que haya una misma cantidad de valores, traerá solo el primero.</a:t>
+            <a:t>Entran en acción una nueva funcion: MODA </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>MODA trae el valor más repetido y en el caso de que no haya ninguno igual, va a ocasionar un error. Si se presenta un escenario en el que haya una misma cantidad de valores, traerá solo el primero.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
